--- a/Demo.OpenCart/Saikumar.xlsx
+++ b/Demo.OpenCart/Saikumar.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{480DC202-18B0-452A-95AD-057A60A7ABE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saikumar\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFE719C-50F2-4FE7-8799-F0D4976525EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="23280" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,20 +27,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Saikumar</t>
+    <t>Saikumar8985</t>
   </si>
   <si>
-    <t>Saikumar8985</t>
+    <t>saikumar46@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -59,13 +71,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -347,20 +362,27 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{80BB0351-4317-4328-AF25-DB65303F79A2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>